--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC160.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC160.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1572,6 +1577,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,7 +1676,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1777,7 +1782,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1796,16 +1801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>103188</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>673970</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1271367</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>828791</xdr:rowOff>
+      <xdr:rowOff>769937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1828,8 +1833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="2119313"/>
-          <a:ext cx="6230220" cy="828791"/>
+          <a:off x="13819188" y="2119313"/>
+          <a:ext cx="5787804" cy="769937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1840,16 +1845,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>518258</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>764321</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>695422</xdr:rowOff>
+      <xdr:rowOff>909735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1872,7 +1877,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="3643313"/>
+          <a:off x="13850938" y="3857626"/>
           <a:ext cx="5249008" cy="695422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1884,16 +1889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>676915</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160978</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>800212</xdr:rowOff>
+      <xdr:rowOff>887525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1916,7 +1921,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="5167313"/>
+          <a:off x="13914438" y="5254626"/>
           <a:ext cx="4582165" cy="800212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1928,16 +1933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>508732</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>818295</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>847843</xdr:rowOff>
+      <xdr:rowOff>974843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1960,7 +1965,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="6691313"/>
+          <a:off x="13914438" y="6818313"/>
           <a:ext cx="5239482" cy="847843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1972,16 +1977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>391125</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4550375</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>771633</xdr:rowOff>
+      <xdr:rowOff>787508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2004,7 +2009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="8215313"/>
+          <a:off x="13970000" y="8231188"/>
           <a:ext cx="4296375" cy="771633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2016,16 +2021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632228</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2997604</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>762106</xdr:rowOff>
+      <xdr:rowOff>793856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2048,7 +2053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="9739313"/>
+          <a:off x="13827126" y="9771063"/>
           <a:ext cx="2886478" cy="762106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2060,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150813</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>175310</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437248</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>638264</xdr:rowOff>
+      <xdr:rowOff>797014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2092,7 +2097,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="11263313"/>
+          <a:off x="13866813" y="11422063"/>
           <a:ext cx="4906060" cy="638264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2104,16 +2109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>264338</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1296213</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>543001</xdr:rowOff>
+      <xdr:rowOff>709689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2136,7 +2141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="12787313"/>
+          <a:off x="13811250" y="12954001"/>
           <a:ext cx="5820588" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2148,16 +2153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511676</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3654926</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>609685</xdr:rowOff>
+      <xdr:rowOff>816060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2180,7 +2185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="14311313"/>
+          <a:off x="13779500" y="14517688"/>
           <a:ext cx="3591426" cy="609685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2192,16 +2197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>277812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441701</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2711827</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>704948</xdr:rowOff>
+      <xdr:rowOff>982760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2224,7 +2229,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="15835313"/>
+          <a:off x="13731876" y="16113125"/>
           <a:ext cx="2695951" cy="704948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2265,7 +2270,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2273,6 +2278,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2306,7 +2325,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2314,6 +2333,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2347,7 +2380,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2355,6 +2388,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2388,7 +2435,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2396,6 +2443,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2429,7 +2490,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2437,6 +2498,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2470,7 +2545,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2478,6 +2553,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2511,7 +2600,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2519,6 +2608,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2854,9 +2957,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2973,7 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="60.625" style="15" customWidth="1"/>
     <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
@@ -2902,14 +3005,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2933,12 +3036,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87">
         <v>11</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2962,10 +3065,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2994,8 +3097,8 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3079,12 +3182,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3174,7 +3277,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="77" t="s">
         <v>191</v>
       </c>
       <c r="K10" s="64"/>
@@ -3217,7 +3320,7 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="77" t="s">
         <v>192</v>
       </c>
       <c r="K11" s="65"/>
@@ -3260,7 +3363,7 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="77" t="s">
         <v>193</v>
       </c>
       <c r="K12" s="64"/>
@@ -3303,7 +3406,7 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="108" t="s">
+      <c r="J13" s="77" t="s">
         <v>194</v>
       </c>
       <c r="K13" s="64"/>
@@ -3346,7 +3449,7 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="77" t="s">
         <v>195</v>
       </c>
       <c r="K14" s="64"/>
@@ -3389,7 +3492,7 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="77" t="s">
         <v>196</v>
       </c>
       <c r="K15" s="66"/>
@@ -3432,7 +3535,7 @@
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J16" s="108" t="s">
+      <c r="J16" s="77" t="s">
         <v>197</v>
       </c>
       <c r="K16" s="67"/>
@@ -3475,7 +3578,7 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="77" t="s">
         <v>198</v>
       </c>
       <c r="K17" s="66"/>
@@ -3518,7 +3621,7 @@
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="77" t="s">
         <v>199</v>
       </c>
       <c r="K18" s="66"/>
@@ -3561,7 +3664,7 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="108" t="s">
+      <c r="J19" s="77" t="s">
         <v>201</v>
       </c>
       <c r="K19" s="67"/>
@@ -6420,25 +6523,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6446,11 +6549,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6501,11 +6604,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6550,12 +6653,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6649,14 +6752,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6689,12 +6792,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6734,12 +6837,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6755,12 +6858,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -7151,40 +7254,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
